--- a/Sheets/Sensitivity Specificity and Prevalence.xlsx
+++ b/Sheets/Sensitivity Specificity and Prevalence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb8c4cdaff1cb2e3/Documents/Google Drive/Projects/covid/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF85E3-78C0-40B1-BA77-967701178B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{64AF85E3-78C0-40B1-BA77-967701178B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0ADAC487-A70F-4B1F-BD99-6B724D9E883A}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-16297" windowWidth="28995" windowHeight="15944" xr2:uid="{AEEE9387-4549-4C43-AAA1-459464C363F0}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="18232" windowHeight="12689" xr2:uid="{AEEE9387-4549-4C43-AAA1-459464C363F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +597,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,9 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531B5B2B-D140-4AD0-8ADA-BBA03336E6A1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -960,20 +961,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.9" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="7" t="s">
@@ -984,7 +987,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1001,7 +1004,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="33">
-        <v>0.99999899999999997</v>
+        <v>0.98</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="B13" s="27">
         <f>Prevalence *Sensitivity / (Prevalence * Sensitivity +(1-Prevalence)*(1-Specificity))</f>
-        <v>0.9996539392439393</v>
+        <v>0.12620508326029789</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1082,14 +1085,14 @@
       </c>
       <c r="B14" s="32">
         <f>Specificity *(1-Prevalence)/(Specificity * (1- Prevalence) + Prevalence *(1 - Sensitivity))</f>
-        <v>0.99987965328146489</v>
+        <v>0.99987719765038174</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D16" s="7" t="s">
@@ -1098,10 +1101,10 @@
       <c r="E16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1114,11 +1117,11 @@
         <f>1-Prevalence</f>
         <v>0.997</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1130,22 +1133,22 @@
       </c>
       <c r="E18" s="25">
         <f>(1-Prevalence)*(1-Specificity)</f>
-        <v>9.9700000002866947E-7</v>
+        <v>1.9940000000000017E-2</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="34">
         <f>D18/(D18+E18)</f>
-        <v>0.9996539392439393</v>
+        <v>0.12620508326029789</v>
       </c>
       <c r="H18" s="29">
         <f>1/(1-G18)</f>
-        <v>2889.6659979111023</v>
+        <v>1.1444332998996989</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1155,18 +1158,18 @@
       </c>
       <c r="E19" s="25">
         <f>Specificity*(1-Prevalence)</f>
-        <v>0.99699900299999999</v>
+        <v>0.97705999999999993</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="30">
         <f>E19/(D19+E19)</f>
-        <v>0.99987965328146489</v>
+        <v>0.99987719765038174</v>
       </c>
       <c r="H19" s="31">
         <f>1/(1-G19)</f>
-        <v>8309.3250249962475</v>
+        <v>8143.1666666688661</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1178,7 +1181,7 @@
       </c>
       <c r="E20" s="22">
         <f>Specificity</f>
-        <v>0.99999899999999997</v>
+        <v>0.98</v>
       </c>
       <c r="F20" s="24">
         <f>SUM(D18:E19)</f>
@@ -1197,12 +1200,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
